--- a/input/SHCI_DataTable_27Aug2019.xlsx
+++ b/input/SHCI_DataTable_27Aug2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/zdebebe_worldbank_org/Documents/Documents (zdebebe@worldbank.org)/Human Capital Project/HCI_AM19/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB538904\OneDrive - WBG\HCI_AM19\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFDF709A-8CC6-45A3-91AC-A1959A1DFE66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{DFDF709A-8CC6-45A3-91AC-A1959A1DFE66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{11DFCE7D-FE32-4B1B-BE31-483841A333D3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19776" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -304,9 +304,6 @@
     <t>El Salvador</t>
   </si>
   <si>
-    <t>eSwatini</t>
-  </si>
-  <si>
     <t>Chad</t>
   </si>
   <si>
@@ -467,16 +464,24 @@
   </si>
   <si>
     <t>PISA/PIRLS</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -499,8 +504,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -817,11 +823,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -829,109 +837,109 @@
         <v>52</v>
       </c>
       <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
         <v>104</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>105</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>106</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>107</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>108</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>109</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>110</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>111</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>112</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>113</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>114</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>115</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>116</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>117</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>118</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>119</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>120</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>121</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>122</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>123</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>124</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>125</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>126</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>127</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>128</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>129</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>130</v>
       </c>
-      <c r="AD1" t="s">
-        <v>131</v>
-      </c>
       <c r="AE1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF1" t="s">
         <v>134</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>135</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>136</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>137</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>138</v>
       </c>
-      <c r="AJ1" t="s">
-        <v>139</v>
-      </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1020,28 +1028,28 @@
         <v>2008</v>
       </c>
       <c r="AD2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE2">
         <v>2008</v>
       </c>
       <c r="AF2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG2">
         <v>2005</v>
       </c>
       <c r="AH2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AI2">
         <v>2009</v>
       </c>
       <c r="AJ2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1130,28 +1138,28 @@
         <v>2000</v>
       </c>
       <c r="AD3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE3">
         <v>2000</v>
       </c>
       <c r="AF3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG3">
         <v>2000</v>
       </c>
       <c r="AH3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI3">
         <v>2003</v>
       </c>
       <c r="AJ3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1240,28 +1248,28 @@
         <v>2005</v>
       </c>
       <c r="AD4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE4">
         <v>2005</v>
       </c>
       <c r="AF4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG4">
         <v>2005</v>
       </c>
       <c r="AH4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI4">
         <v>2007</v>
       </c>
       <c r="AJ4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1350,28 +1358,28 @@
         <v>2015</v>
       </c>
       <c r="AD5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE5">
         <v>2015</v>
       </c>
       <c r="AF5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG5">
         <v>2015</v>
       </c>
       <c r="AH5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI5">
         <v>2011</v>
       </c>
       <c r="AJ5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1460,28 +1468,28 @@
         <v>2006</v>
       </c>
       <c r="AD6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE6">
         <v>2006</v>
       </c>
       <c r="AF6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG6">
         <v>2006</v>
       </c>
       <c r="AH6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI6">
         <v>2006</v>
       </c>
       <c r="AJ6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1570,28 +1578,28 @@
         <v>2010</v>
       </c>
       <c r="AD7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE7">
         <v>2010</v>
       </c>
       <c r="AF7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG7">
         <v>2010</v>
       </c>
       <c r="AH7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI7">
         <v>2014</v>
       </c>
       <c r="AJ7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1680,28 +1688,28 @@
         <v>2006</v>
       </c>
       <c r="AD8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE8">
         <v>2006</v>
       </c>
       <c r="AF8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG8">
         <v>2006</v>
       </c>
       <c r="AH8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI8">
         <v>2006</v>
       </c>
       <c r="AJ8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1790,28 +1798,28 @@
         <v>2014</v>
       </c>
       <c r="AD9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AE9">
         <v>2014</v>
       </c>
       <c r="AF9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG9">
         <v>2014</v>
       </c>
       <c r="AH9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AI9">
         <v>2014</v>
       </c>
       <c r="AJ9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1900,28 +1908,28 @@
         <v>2003</v>
       </c>
       <c r="AD10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE10">
         <v>2003</v>
       </c>
       <c r="AF10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG10">
         <v>2003</v>
       </c>
       <c r="AH10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI10">
         <v>2006</v>
       </c>
       <c r="AJ10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -2010,28 +2018,28 @@
         <v>2010</v>
       </c>
       <c r="AD11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE11">
         <v>2010</v>
       </c>
       <c r="AF11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG11">
         <v>2010</v>
       </c>
       <c r="AH11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI11">
         <v>2014</v>
       </c>
       <c r="AJ11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2120,28 +2128,28 @@
         <v>1996</v>
       </c>
       <c r="AD12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE12">
         <v>1996</v>
       </c>
       <c r="AF12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG12">
         <v>1996</v>
       </c>
       <c r="AH12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI12">
         <v>2000</v>
       </c>
       <c r="AJ12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -2230,28 +2238,28 @@
         <v>2011</v>
       </c>
       <c r="AD13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE13">
         <v>2011</v>
       </c>
       <c r="AF13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG13">
         <v>2011</v>
       </c>
       <c r="AH13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI13">
         <v>2006</v>
       </c>
       <c r="AJ13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2340,28 +2348,28 @@
         <v>2016</v>
       </c>
       <c r="AD14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AE14">
         <v>2016</v>
       </c>
       <c r="AF14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG14">
         <v>2016</v>
       </c>
       <c r="AH14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AI14">
         <v>2014</v>
       </c>
       <c r="AJ14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -2450,28 +2458,28 @@
         <v>2004</v>
       </c>
       <c r="AD15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE15">
         <v>2004</v>
       </c>
       <c r="AF15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG15">
         <v>2004</v>
       </c>
       <c r="AH15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI15">
         <v>2006</v>
       </c>
       <c r="AJ15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -2560,28 +2568,28 @@
         <v>2014</v>
       </c>
       <c r="AD16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AE16">
         <v>2014</v>
       </c>
       <c r="AF16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG16">
         <v>2014</v>
       </c>
       <c r="AH16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AI16">
         <v>2014</v>
       </c>
       <c r="AJ16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -2670,28 +2678,28 @@
         <v>2007</v>
       </c>
       <c r="AD17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE17">
         <v>2007</v>
       </c>
       <c r="AF17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG17">
         <v>2007</v>
       </c>
       <c r="AH17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI17">
         <v>2010</v>
       </c>
       <c r="AJ17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -2780,28 +2788,28 @@
         <v>2013</v>
       </c>
       <c r="AD18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE18">
         <v>2013</v>
       </c>
       <c r="AF18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG18">
         <v>2013</v>
       </c>
       <c r="AH18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI18">
         <v>2012</v>
       </c>
       <c r="AJ18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -2890,28 +2898,28 @@
         <v>2005</v>
       </c>
       <c r="AD19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE19">
         <v>2005</v>
       </c>
       <c r="AF19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG19">
         <v>2005</v>
       </c>
       <c r="AH19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI19">
         <v>2006</v>
       </c>
       <c r="AJ19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -3000,28 +3008,28 @@
         <v>2014</v>
       </c>
       <c r="AD20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AE20">
         <v>2014</v>
       </c>
       <c r="AF20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG20">
         <v>2014</v>
       </c>
       <c r="AH20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AI20">
         <v>2014</v>
       </c>
       <c r="AJ20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:36">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -3110,28 +3118,28 @@
         <v>2004</v>
       </c>
       <c r="AD21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE21">
         <v>2004</v>
       </c>
       <c r="AF21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG21">
         <v>2005</v>
       </c>
       <c r="AH21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI21">
         <v>2003</v>
       </c>
       <c r="AJ21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -3220,28 +3228,28 @@
         <v>2009</v>
       </c>
       <c r="AD22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE22">
         <v>2009</v>
       </c>
       <c r="AF22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG22">
         <v>2010</v>
       </c>
       <c r="AH22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI22">
         <v>2009</v>
       </c>
       <c r="AJ22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -3330,28 +3338,28 @@
         <v>1996</v>
       </c>
       <c r="AD23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE23">
         <v>2000</v>
       </c>
       <c r="AF23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG23">
         <v>1996</v>
       </c>
       <c r="AH23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI23">
         <v>2006</v>
       </c>
       <c r="AJ23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -3440,28 +3448,28 @@
         <v>2002</v>
       </c>
       <c r="AD24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE24">
         <v>2002</v>
       </c>
       <c r="AF24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG24">
         <v>2000</v>
       </c>
       <c r="AH24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI24">
         <v>2006</v>
       </c>
       <c r="AJ24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -3550,28 +3558,28 @@
         <v>2007</v>
       </c>
       <c r="AD25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE25">
         <v>2007</v>
       </c>
       <c r="AF25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG25">
         <v>2007</v>
       </c>
       <c r="AH25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI25">
         <v>2013</v>
       </c>
       <c r="AJ25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -3660,28 +3668,28 @@
         <v>2013</v>
       </c>
       <c r="AD26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE26">
         <v>2013</v>
       </c>
       <c r="AF26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG26">
         <v>2013</v>
       </c>
       <c r="AH26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI26">
         <v>2015</v>
       </c>
       <c r="AJ26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:36">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -3770,28 +3778,28 @@
         <v>2003</v>
       </c>
       <c r="AD27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE27">
         <v>2003</v>
       </c>
       <c r="AF27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG27">
         <v>2003</v>
       </c>
       <c r="AH27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI27">
         <v>2003</v>
       </c>
       <c r="AJ27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -3880,28 +3888,28 @@
         <v>2008</v>
       </c>
       <c r="AD28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE28">
         <v>2008</v>
       </c>
       <c r="AF28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG28">
         <v>2008</v>
       </c>
       <c r="AH28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI28">
         <v>2007</v>
       </c>
       <c r="AJ28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:36">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -3990,28 +3998,28 @@
         <v>2014</v>
       </c>
       <c r="AD29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE29">
         <v>2014</v>
       </c>
       <c r="AF29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG29">
         <v>2014</v>
       </c>
       <c r="AH29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI29">
         <v>2015</v>
       </c>
       <c r="AJ29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:36">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -4100,28 +4108,28 @@
         <v>2016</v>
       </c>
       <c r="AD30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE30">
         <v>2016</v>
       </c>
       <c r="AF30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG30">
         <v>2016</v>
       </c>
       <c r="AH30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI30">
         <v>2010</v>
       </c>
       <c r="AJ30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:36">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -4210,28 +4218,28 @@
         <v>2012</v>
       </c>
       <c r="AD31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE31">
         <v>2012</v>
       </c>
       <c r="AF31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG31">
         <v>2012</v>
       </c>
       <c r="AH31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI31">
         <v>2006</v>
       </c>
       <c r="AJ31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:36">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -4320,28 +4328,28 @@
         <v>1998</v>
       </c>
       <c r="AD32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE32">
         <v>1998</v>
       </c>
       <c r="AF32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG32">
         <v>1998</v>
       </c>
       <c r="AH32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI32">
         <v>2003</v>
       </c>
       <c r="AJ32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:36">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -4430,28 +4438,28 @@
         <v>2003</v>
       </c>
       <c r="AD33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE33">
         <v>2003</v>
       </c>
       <c r="AF33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG33">
         <v>2003</v>
       </c>
       <c r="AH33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI33">
         <v>2007</v>
       </c>
       <c r="AJ33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:36">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -4540,28 +4548,28 @@
         <v>2008</v>
       </c>
       <c r="AD34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE34">
         <v>2008</v>
       </c>
       <c r="AF34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG34">
         <v>2008</v>
       </c>
       <c r="AH34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI34">
         <v>2011</v>
       </c>
       <c r="AJ34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:36">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -4650,28 +4658,28 @@
         <v>2014</v>
       </c>
       <c r="AD35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE35">
         <v>2014</v>
       </c>
       <c r="AF35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG35">
         <v>2014</v>
       </c>
       <c r="AH35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI35">
         <v>2013</v>
       </c>
       <c r="AJ35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:36">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -4760,28 +4768,28 @@
         <v>2013</v>
       </c>
       <c r="AD36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE36">
         <v>2013</v>
       </c>
       <c r="AF36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG36">
         <v>2013</v>
       </c>
       <c r="AH36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI36">
         <v>2011</v>
       </c>
       <c r="AJ36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:36">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -4870,28 +4878,28 @@
         <v>2014</v>
       </c>
       <c r="AD37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE37">
         <v>2014</v>
       </c>
       <c r="AF37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG37">
         <v>2014</v>
       </c>
       <c r="AH37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI37">
         <v>2013</v>
       </c>
       <c r="AJ37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:36">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -4980,28 +4988,28 @@
         <v>2005</v>
       </c>
       <c r="AD38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE38">
         <v>2005</v>
       </c>
       <c r="AF38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG38">
         <v>2005</v>
       </c>
       <c r="AH38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI38">
         <v>2008</v>
       </c>
       <c r="AJ38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:36">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -5090,28 +5098,28 @@
         <v>2011</v>
       </c>
       <c r="AD39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE39">
         <v>2011</v>
       </c>
       <c r="AF39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG39">
         <v>2011</v>
       </c>
       <c r="AH39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI39">
         <v>2013</v>
       </c>
       <c r="AJ39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:36">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -5200,28 +5208,28 @@
         <v>2012</v>
       </c>
       <c r="AD40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE40">
         <v>2012</v>
       </c>
       <c r="AF40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG40">
         <v>2012</v>
       </c>
       <c r="AH40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI40">
         <v>2013</v>
       </c>
       <c r="AJ40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:36">
       <c r="A41" t="s">
         <v>23</v>
       </c>
@@ -5310,28 +5318,28 @@
         <v>2015</v>
       </c>
       <c r="AD41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE41">
         <v>2015</v>
       </c>
       <c r="AF41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG41">
         <v>2015</v>
       </c>
       <c r="AH41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI41">
         <v>2009</v>
       </c>
       <c r="AJ41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:36">
       <c r="A42" t="s">
         <v>24</v>
       </c>
@@ -5420,28 +5428,28 @@
         <v>2002</v>
       </c>
       <c r="AD42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE42">
         <v>2002</v>
       </c>
       <c r="AF42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG42">
         <v>2002</v>
       </c>
       <c r="AH42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI42">
         <v>2003</v>
       </c>
       <c r="AJ42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:36">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -5530,28 +5538,28 @@
         <v>2009</v>
       </c>
       <c r="AD43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE43">
         <v>2009</v>
       </c>
       <c r="AF43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG43">
         <v>2009</v>
       </c>
       <c r="AH43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI43">
         <v>2009</v>
       </c>
       <c r="AJ43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:36">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -5640,28 +5648,28 @@
         <v>2012</v>
       </c>
       <c r="AD44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE44">
         <v>2012</v>
       </c>
       <c r="AF44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG44">
         <v>2012</v>
       </c>
       <c r="AH44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI44">
         <v>2012</v>
       </c>
       <c r="AJ44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:36">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -5750,28 +5758,28 @@
         <v>1999</v>
       </c>
       <c r="AD45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE45">
         <v>1999</v>
       </c>
       <c r="AF45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG45">
         <v>1999</v>
       </c>
       <c r="AH45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI45">
         <v>2009</v>
       </c>
       <c r="AJ45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:36">
       <c r="A46" t="s">
         <v>26</v>
       </c>
@@ -5860,28 +5868,28 @@
         <v>1998</v>
       </c>
       <c r="AD46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE46">
         <v>1998</v>
       </c>
       <c r="AF46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG46">
         <v>1998</v>
       </c>
       <c r="AH46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI46">
         <v>2000</v>
       </c>
       <c r="AJ46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:36">
       <c r="A47" t="s">
         <v>26</v>
       </c>
@@ -5970,28 +5978,28 @@
         <v>2014</v>
       </c>
       <c r="AD47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE47">
         <v>2014</v>
       </c>
       <c r="AF47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG47">
         <v>2014</v>
       </c>
       <c r="AH47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI47">
         <v>2007</v>
       </c>
       <c r="AJ47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:36">
       <c r="A48" t="s">
         <v>27</v>
       </c>
@@ -6080,28 +6088,28 @@
         <v>2014</v>
       </c>
       <c r="AD48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AE48">
         <v>2014</v>
       </c>
       <c r="AF48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG48">
         <v>2014</v>
       </c>
       <c r="AH48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AI48">
         <v>2009</v>
       </c>
       <c r="AJ48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:36">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -6190,28 +6198,28 @@
         <v>2004</v>
       </c>
       <c r="AD49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE49">
         <v>2004</v>
       </c>
       <c r="AF49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG49">
         <v>2004</v>
       </c>
       <c r="AH49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI49">
         <v>2000</v>
       </c>
       <c r="AJ49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:36">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -6300,28 +6308,28 @@
         <v>2014</v>
       </c>
       <c r="AD50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE50">
         <v>2014</v>
       </c>
       <c r="AF50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG50">
         <v>2014</v>
       </c>
       <c r="AH50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI50">
         <v>2007</v>
       </c>
       <c r="AJ50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:36">
       <c r="A51" t="s">
         <v>29</v>
       </c>
@@ -6410,28 +6418,28 @@
         <v>2005</v>
       </c>
       <c r="AD51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE51">
         <v>2005</v>
       </c>
       <c r="AF51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG51">
         <v>2005</v>
       </c>
       <c r="AH51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI51">
         <v>2007</v>
       </c>
       <c r="AJ51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:36">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -6520,28 +6528,28 @@
         <v>2008</v>
       </c>
       <c r="AD52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE52">
         <v>2008</v>
       </c>
       <c r="AF52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG52">
         <v>2008</v>
       </c>
       <c r="AH52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI52">
         <v>2006</v>
       </c>
       <c r="AJ52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:36">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -6630,28 +6638,28 @@
         <v>2015</v>
       </c>
       <c r="AD53" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AE53">
         <v>2015</v>
       </c>
       <c r="AF53" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG53">
         <v>2015</v>
       </c>
       <c r="AH53" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AI53">
         <v>2015</v>
       </c>
       <c r="AJ53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:36">
       <c r="A54" t="s">
         <v>32</v>
       </c>
@@ -6740,28 +6748,28 @@
         <v>2015</v>
       </c>
       <c r="AD54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE54">
         <v>2015</v>
       </c>
       <c r="AF54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG54">
         <v>2015</v>
       </c>
       <c r="AH54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI54">
         <v>2014</v>
       </c>
       <c r="AJ54" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:36">
       <c r="A55" t="s">
         <v>33</v>
       </c>
@@ -6850,28 +6858,28 @@
         <v>2003</v>
       </c>
       <c r="AD55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE55">
         <v>2003</v>
       </c>
       <c r="AF55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG55">
         <v>2003</v>
       </c>
       <c r="AH55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI55">
         <v>2000</v>
       </c>
       <c r="AJ55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:36">
       <c r="A56" t="s">
         <v>33</v>
       </c>
@@ -6960,28 +6968,28 @@
         <v>2011</v>
       </c>
       <c r="AD56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE56">
         <v>2011</v>
       </c>
       <c r="AF56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG56">
         <v>2011</v>
       </c>
       <c r="AH56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI56">
         <v>2007</v>
       </c>
       <c r="AJ56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:36">
       <c r="A57" t="s">
         <v>34</v>
       </c>
@@ -7070,28 +7078,28 @@
         <v>2000</v>
       </c>
       <c r="AD57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE57">
         <v>2000</v>
       </c>
       <c r="AF57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG57">
         <v>2000</v>
       </c>
       <c r="AH57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI57">
         <v>2000</v>
       </c>
       <c r="AJ57" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:36">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -7180,28 +7188,28 @@
         <v>2006</v>
       </c>
       <c r="AD58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AE58">
         <v>2006</v>
       </c>
       <c r="AF58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG58">
         <v>2006</v>
       </c>
       <c r="AH58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AI58">
         <v>2007</v>
       </c>
       <c r="AJ58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:36">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -7290,28 +7298,28 @@
         <v>2010</v>
       </c>
       <c r="AD59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE59">
         <v>2010</v>
       </c>
       <c r="AF59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG59">
         <v>2010</v>
       </c>
       <c r="AH59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI59">
         <v>2010</v>
       </c>
       <c r="AJ59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:36">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -7400,28 +7408,28 @@
         <v>2015</v>
       </c>
       <c r="AD60" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE60">
         <v>2015</v>
       </c>
       <c r="AF60" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG60">
         <v>2015</v>
       </c>
       <c r="AH60" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI60">
         <v>2012</v>
       </c>
       <c r="AJ60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:36">
       <c r="A61" t="s">
         <v>35</v>
       </c>
@@ -7510,28 +7518,28 @@
         <v>2000</v>
       </c>
       <c r="AD61" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE61">
         <v>2000</v>
       </c>
       <c r="AF61" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG61">
         <v>2000</v>
       </c>
       <c r="AH61" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI61">
         <v>2000</v>
       </c>
       <c r="AJ61" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:36">
       <c r="A62" t="s">
         <v>35</v>
       </c>
@@ -7620,28 +7628,28 @@
         <v>2013</v>
       </c>
       <c r="AD62" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE62">
         <v>2013</v>
       </c>
       <c r="AF62" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG62">
         <v>2013</v>
       </c>
       <c r="AH62" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI62">
         <v>2007</v>
       </c>
       <c r="AJ62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:36">
       <c r="A63" t="s">
         <v>36</v>
       </c>
@@ -7730,28 +7738,28 @@
         <v>2012</v>
       </c>
       <c r="AD63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE63">
         <v>2012</v>
       </c>
       <c r="AF63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG63">
         <v>2012</v>
       </c>
       <c r="AH63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI63">
         <v>2014</v>
       </c>
       <c r="AJ63" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:36">
       <c r="A64" t="s">
         <v>37</v>
       </c>
@@ -7840,28 +7848,28 @@
         <v>2000</v>
       </c>
       <c r="AD64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE64">
         <v>2000</v>
       </c>
       <c r="AF64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG64">
         <v>2000</v>
       </c>
       <c r="AH64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI64">
         <v>2000</v>
       </c>
       <c r="AJ64" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:36">
       <c r="A65" t="s">
         <v>37</v>
       </c>
@@ -7950,28 +7958,28 @@
         <v>2003</v>
       </c>
       <c r="AD65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE65">
         <v>2003</v>
       </c>
       <c r="AF65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG65">
         <v>2004</v>
       </c>
       <c r="AH65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI65">
         <v>2006</v>
       </c>
       <c r="AJ65" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:36">
       <c r="A66" t="s">
         <v>37</v>
       </c>
@@ -8060,28 +8068,28 @@
         <v>2012</v>
       </c>
       <c r="AD66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE66">
         <v>2012</v>
       </c>
       <c r="AF66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG66">
         <v>2012</v>
       </c>
       <c r="AH66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI66">
         <v>2015</v>
       </c>
       <c r="AJ66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:36">
       <c r="A67" t="s">
         <v>38</v>
       </c>
@@ -8170,28 +8178,28 @@
         <v>2016</v>
       </c>
       <c r="AD67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AE67">
         <v>2016</v>
       </c>
       <c r="AF67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG67">
         <v>2016</v>
       </c>
       <c r="AH67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AI67">
         <v>2013</v>
       </c>
       <c r="AJ67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:36">
       <c r="A68" t="s">
         <v>39</v>
       </c>
@@ -8280,28 +8288,28 @@
         <v>2010</v>
       </c>
       <c r="AD68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AE68">
         <v>2010</v>
       </c>
       <c r="AF68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG68">
         <v>2010</v>
       </c>
       <c r="AH68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AI68">
         <v>2007</v>
       </c>
       <c r="AJ68" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:36">
       <c r="A69" t="s">
         <v>39</v>
       </c>
@@ -8390,28 +8398,28 @@
         <v>2014</v>
       </c>
       <c r="AD69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AE69">
         <v>2014</v>
       </c>
       <c r="AF69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG69">
         <v>2014</v>
       </c>
       <c r="AH69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AI69">
         <v>2011</v>
       </c>
       <c r="AJ69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:36">
       <c r="A70" t="s">
         <v>40</v>
       </c>
@@ -8500,28 +8508,28 @@
         <v>2005</v>
       </c>
       <c r="AD70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE70">
         <v>2005</v>
       </c>
       <c r="AF70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG70">
         <v>2005</v>
       </c>
       <c r="AH70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI70">
         <v>2006</v>
       </c>
       <c r="AJ70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:36">
       <c r="A71" t="s">
         <v>40</v>
       </c>
@@ -8610,28 +8618,28 @@
         <v>2014</v>
       </c>
       <c r="AD71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE71">
         <v>2014</v>
       </c>
       <c r="AF71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG71">
         <v>2014</v>
       </c>
       <c r="AH71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI71">
         <v>2014</v>
       </c>
       <c r="AJ71" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:36">
       <c r="A72" t="s">
         <v>41</v>
       </c>
@@ -8720,33 +8728,33 @@
         <v>2014</v>
       </c>
       <c r="AD72" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AE72">
         <v>2014</v>
       </c>
       <c r="AF72" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG72">
         <v>2014</v>
       </c>
       <c r="AH72" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AI72">
         <v>2007</v>
       </c>
       <c r="AJ72" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:36">
       <c r="A73" t="s">
         <v>42</v>
       </c>
-      <c r="B73" t="s">
-        <v>94</v>
+      <c r="B73" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="C73">
         <v>2014</v>
@@ -8830,33 +8838,33 @@
         <v>2014</v>
       </c>
       <c r="AD73" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AE73">
         <v>2014</v>
       </c>
       <c r="AF73" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG73">
         <v>2014</v>
       </c>
       <c r="AH73" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AI73">
         <v>2007</v>
       </c>
       <c r="AJ73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:36">
       <c r="A74" t="s">
         <v>43</v>
       </c>
       <c r="B74" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C74">
         <v>2004</v>
@@ -8940,33 +8948,33 @@
         <v>2004</v>
       </c>
       <c r="AD74" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE74">
         <v>2004</v>
       </c>
       <c r="AF74" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG74">
         <v>2004</v>
       </c>
       <c r="AH74" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI74">
         <v>2006</v>
       </c>
       <c r="AJ74" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:36">
       <c r="A75" t="s">
         <v>43</v>
       </c>
       <c r="B75" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C75">
         <v>2014</v>
@@ -9050,33 +9058,33 @@
         <v>2014</v>
       </c>
       <c r="AD75" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE75">
         <v>2014</v>
       </c>
       <c r="AF75" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG75">
         <v>2014</v>
       </c>
       <c r="AH75" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI75">
         <v>2014</v>
       </c>
       <c r="AJ75" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:36">
       <c r="A76" t="s">
         <v>44</v>
       </c>
       <c r="B76" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76">
         <v>2013</v>
@@ -9160,33 +9168,33 @@
         <v>2013</v>
       </c>
       <c r="AD76" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE76">
         <v>2013</v>
       </c>
       <c r="AF76" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG76">
         <v>2013</v>
       </c>
       <c r="AH76" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI76">
         <v>2014</v>
       </c>
       <c r="AJ76" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:36">
       <c r="A77" t="s">
         <v>45</v>
       </c>
       <c r="B77" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C77">
         <v>2012</v>
@@ -9270,33 +9278,33 @@
         <v>2012</v>
       </c>
       <c r="AD77" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE77">
         <v>2012</v>
       </c>
       <c r="AF77" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG77">
         <v>2012</v>
       </c>
       <c r="AH77" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI77">
         <v>2016</v>
       </c>
       <c r="AJ77" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:36">
       <c r="A78" t="s">
         <v>46</v>
       </c>
       <c r="B78" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C78">
         <v>1998</v>
@@ -9380,33 +9388,33 @@
         <v>1998</v>
       </c>
       <c r="AD78" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE78">
         <v>1998</v>
       </c>
       <c r="AF78" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG78">
         <v>1998</v>
       </c>
       <c r="AH78" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI78">
         <v>2003</v>
       </c>
       <c r="AJ78" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:36">
       <c r="A79" t="s">
         <v>46</v>
       </c>
       <c r="B79" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C79">
         <v>2003</v>
@@ -9490,33 +9498,33 @@
         <v>2003</v>
       </c>
       <c r="AD79" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE79">
         <v>2003</v>
       </c>
       <c r="AF79" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG79">
         <v>2003</v>
       </c>
       <c r="AH79" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI79">
         <v>2012</v>
       </c>
       <c r="AJ79" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:36">
       <c r="A80" t="s">
         <v>47</v>
       </c>
       <c r="B80" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C80">
         <v>1999</v>
@@ -9600,33 +9608,33 @@
         <v>1999</v>
       </c>
       <c r="AD80" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE80">
         <v>1999</v>
       </c>
       <c r="AF80" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG80">
         <v>1999</v>
       </c>
       <c r="AH80" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI80">
         <v>2000</v>
       </c>
       <c r="AJ80" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:36">
       <c r="A81" t="s">
         <v>47</v>
       </c>
       <c r="B81" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C81">
         <v>2009</v>
@@ -9710,33 +9718,33 @@
         <v>2009</v>
       </c>
       <c r="AD81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE81">
         <v>2009</v>
       </c>
       <c r="AF81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG81">
         <v>2010</v>
       </c>
       <c r="AH81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI81">
         <v>2007</v>
       </c>
       <c r="AJ81" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:36">
       <c r="A82" t="s">
         <v>47</v>
       </c>
       <c r="B82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C82">
         <v>2015</v>
@@ -9820,33 +9828,33 @@
         <v>2015</v>
       </c>
       <c r="AD82" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE82">
         <v>2015</v>
       </c>
       <c r="AF82" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG82">
         <v>2015</v>
       </c>
       <c r="AH82" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI82">
         <v>2013</v>
       </c>
       <c r="AJ82" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:36">
       <c r="A83" t="s">
         <v>48</v>
       </c>
       <c r="B83" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C83">
         <v>2000</v>
@@ -9930,33 +9938,33 @@
         <v>2000</v>
       </c>
       <c r="AD83" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE83">
         <v>2000</v>
       </c>
       <c r="AF83" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG83">
         <v>2000</v>
       </c>
       <c r="AH83" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI83">
         <v>2000</v>
       </c>
       <c r="AJ83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:36">
       <c r="A84" t="s">
         <v>48</v>
       </c>
       <c r="B84" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C84">
         <v>2016</v>
@@ -10040,33 +10048,33 @@
         <v>2016</v>
       </c>
       <c r="AD84" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE84">
         <v>2016</v>
       </c>
       <c r="AF84" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG84">
         <v>2016</v>
       </c>
       <c r="AH84" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI84">
         <v>2007</v>
       </c>
       <c r="AJ84" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:36">
       <c r="A85" t="s">
         <v>49</v>
       </c>
       <c r="B85" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C85">
         <v>2013</v>
@@ -10150,33 +10158,33 @@
         <v>2013</v>
       </c>
       <c r="AD85" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AE85">
         <v>2010</v>
       </c>
       <c r="AF85" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG85">
         <v>2013</v>
       </c>
       <c r="AH85" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AI85">
         <v>2015</v>
       </c>
       <c r="AJ85" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:36">
       <c r="A86" t="s">
         <v>50</v>
       </c>
       <c r="B86" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C86">
         <v>2001</v>
@@ -10260,33 +10268,33 @@
         <v>2001</v>
       </c>
       <c r="AD86" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE86">
         <v>2001</v>
       </c>
       <c r="AF86" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG86">
         <v>2001</v>
       </c>
       <c r="AH86" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI86">
         <v>2000</v>
       </c>
       <c r="AJ86" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:36">
       <c r="A87" t="s">
         <v>50</v>
       </c>
       <c r="B87" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C87">
         <v>2007</v>
@@ -10370,33 +10378,33 @@
         <v>2007</v>
       </c>
       <c r="AD87" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE87">
         <v>2007</v>
       </c>
       <c r="AF87" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG87">
         <v>2007</v>
       </c>
       <c r="AH87" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI87">
         <v>2007</v>
       </c>
       <c r="AJ87" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:36">
       <c r="A88" t="s">
         <v>50</v>
       </c>
       <c r="B88" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C88">
         <v>2013</v>
@@ -10480,33 +10488,33 @@
         <v>2013</v>
       </c>
       <c r="AD88" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE88">
         <v>2013</v>
       </c>
       <c r="AF88" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG88">
         <v>2013</v>
       </c>
       <c r="AH88" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI88">
         <v>2011</v>
       </c>
       <c r="AJ88" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:36">
       <c r="A89" t="s">
         <v>51</v>
       </c>
       <c r="B89" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C89">
         <v>2015</v>
@@ -10590,25 +10598,25 @@
         <v>2015</v>
       </c>
       <c r="AD89" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AE89">
         <v>2015</v>
       </c>
       <c r="AF89" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG89">
         <v>2015</v>
       </c>
       <c r="AH89" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AI89">
         <v>2007</v>
       </c>
       <c r="AJ89" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -10617,6 +10625,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD604C3B73AE9943B737720A48E3AF7C" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a0d55b1009b4c36795fe4feb977f4a81">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="60c75bb3-2e3f-4394-b4f4-3e2677e21dfa" xmlns:ns4="9c83b91e-5ffe-420f-9ed1-9dac5903eaec" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0fbfbf99cd7187ca61559514e4a9ec07" ns3:_="" ns4:_="">
     <xsd:import namespace="60c75bb3-2e3f-4394-b4f4-3e2677e21dfa"/>
@@ -10833,22 +10856,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28035E3B-3B6E-42DE-8CCA-A8EC27161901}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="60c75bb3-2e3f-4394-b4f4-3e2677e21dfa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9c83b91e-5ffe-420f-9ed1-9dac5903eaec"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{980E9BEE-0083-4D84-8175-E8DA7028006B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FD2F055-54CB-4AFA-B950-409916CA373C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10865,29 +10898,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{980E9BEE-0083-4D84-8175-E8DA7028006B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28035E3B-3B6E-42DE-8CCA-A8EC27161901}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="60c75bb3-2e3f-4394-b4f4-3e2677e21dfa"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9c83b91e-5ffe-420f-9ed1-9dac5903eaec"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>